--- a/data/trans_orig/P16A15-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A15-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>54454</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43195</v>
+        <v>42718</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69305</v>
+        <v>70205</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09322108649439605</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07394542273122851</v>
+        <v>0.0731288328394321</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1186449850635486</v>
+        <v>0.120185674872136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -765,19 +765,19 @@
         <v>120662</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102229</v>
+        <v>100612</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142640</v>
+        <v>142302</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1308226576814526</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1108378321779989</v>
+        <v>0.1090844495493133</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1546509138467933</v>
+        <v>0.1542848702926508</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -786,19 +786,19 @@
         <v>175116</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152867</v>
+        <v>150698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>201584</v>
+        <v>201898</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1162425010875597</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1014735300973927</v>
+        <v>0.1000339081406911</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1338119321275444</v>
+        <v>0.1340204124030784</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>529687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>514836</v>
+        <v>513936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>540946</v>
+        <v>541423</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9067789135056039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8813550149364513</v>
+        <v>0.8798143251278635</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9260545772687717</v>
+        <v>0.9268711671605675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>769</v>
@@ -836,19 +836,19 @@
         <v>801671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>779693</v>
+        <v>780031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>820104</v>
+        <v>821721</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8691773423185474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8453490861532067</v>
+        <v>0.8457151297073493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8891621678220012</v>
+        <v>0.8909155504506868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1285</v>
@@ -857,19 +857,19 @@
         <v>1331358</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1304890</v>
+        <v>1304576</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1353607</v>
+        <v>1355776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8837574989124403</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8661880678724557</v>
+        <v>0.8659795875969216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8985264699026073</v>
+        <v>0.899966091859309</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>58702</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45007</v>
+        <v>43748</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73512</v>
+        <v>73676</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05446009892690439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04175498303566482</v>
+        <v>0.04058632580220083</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06819985073344741</v>
+        <v>0.06835160835020869</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -982,19 +982,19 @@
         <v>67578</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54249</v>
+        <v>54680</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84155</v>
+        <v>85518</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06390167921869604</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05129749470945797</v>
+        <v>0.05170499835522794</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07957666475312861</v>
+        <v>0.08086505378244035</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -1003,19 +1003,19 @@
         <v>126281</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105821</v>
+        <v>107140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148672</v>
+        <v>151058</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05913588808867763</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04955491591050855</v>
+        <v>0.05017233266985336</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06962134810903478</v>
+        <v>0.07073863260254663</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1019192</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1004382</v>
+        <v>1004218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1032887</v>
+        <v>1034146</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9455399010730956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9318001492665523</v>
+        <v>0.9316483916497912</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.958245016964335</v>
+        <v>0.9594136741977992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>961</v>
@@ -1053,19 +1053,19 @@
         <v>989960</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>973383</v>
+        <v>972020</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1003289</v>
+        <v>1002858</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9360983207813039</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9204233352468714</v>
+        <v>0.9191349462175595</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.948702505290542</v>
+        <v>0.948295001644772</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1957</v>
@@ -1074,19 +1074,19 @@
         <v>2009151</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1986760</v>
+        <v>1984374</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2029611</v>
+        <v>2028292</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9408641119113224</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9303786518909651</v>
+        <v>0.929261367397453</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9504450840894914</v>
+        <v>0.9498276673301465</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>52886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40844</v>
+        <v>39330</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67180</v>
+        <v>68182</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0471954056189528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03644912917288601</v>
+        <v>0.03509762581063057</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05995096373717419</v>
+        <v>0.06084539471060441</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1199,19 +1199,19 @@
         <v>59075</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46424</v>
+        <v>44937</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74903</v>
+        <v>75481</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05943507996793471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04670732166712482</v>
+        <v>0.04521094053663851</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07535919018568016</v>
+        <v>0.07594081316973815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -1220,19 +1220,19 @@
         <v>111961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92840</v>
+        <v>92948</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134294</v>
+        <v>132689</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05294873108328978</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04390608800869911</v>
+        <v>0.04395691111888008</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06351035416023798</v>
+        <v>0.06275164477175268</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1067690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1053396</v>
+        <v>1052394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1079732</v>
+        <v>1081246</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9528045943810473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9400490362628269</v>
+        <v>0.9391546052893961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9635508708271142</v>
+        <v>0.9649023741893695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>924</v>
@@ -1270,19 +1270,19 @@
         <v>934865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>919037</v>
+        <v>918459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>947516</v>
+        <v>949003</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9405649200320653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.92464080981432</v>
+        <v>0.9240591868302618</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9532926783328752</v>
+        <v>0.9547890594633615</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1972</v>
@@ -1291,19 +1291,19 @@
         <v>2002555</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1980222</v>
+        <v>1981827</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2021676</v>
+        <v>2021568</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9470512689167102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9364896458397621</v>
+        <v>0.9372483552282472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9560939119913009</v>
+        <v>0.9560430888811199</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>18261</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11261</v>
+        <v>11067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28620</v>
+        <v>27673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04083484906721975</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02518206254381096</v>
+        <v>0.02474622567116628</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06399871923229115</v>
+        <v>0.06188067772918757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1416,19 +1416,19 @@
         <v>16835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9212</v>
+        <v>10050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26321</v>
+        <v>26161</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04934765812627515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02700170416760955</v>
+        <v>0.02945867820608843</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07715260151473334</v>
+        <v>0.07668255548845905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1437,19 +1437,19 @@
         <v>35097</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23987</v>
+        <v>24384</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46488</v>
+        <v>48508</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04451872735902699</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03042671076345617</v>
+        <v>0.03092997934030084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05896861760167348</v>
+        <v>0.06153073820235194</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>428939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>418580</v>
+        <v>419527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>435939</v>
+        <v>436133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9591651509327802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9360012807677089</v>
+        <v>0.9381193222708125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9748179374561891</v>
+        <v>0.975253774328834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>323</v>
@@ -1487,19 +1487,19 @@
         <v>324323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314837</v>
+        <v>314997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>331946</v>
+        <v>331108</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9506523418737248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9228473984852668</v>
+        <v>0.923317444511541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9729982958323905</v>
+        <v>0.9705413217939116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>740</v>
@@ -1508,19 +1508,19 @@
         <v>753261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>741870</v>
+        <v>739850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>764371</v>
+        <v>763974</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.955481272640973</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9410313823983265</v>
+        <v>0.9384692617976481</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.969573289236544</v>
+        <v>0.9690700206596993</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>184304</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160071</v>
+        <v>158502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>212655</v>
+        <v>212294</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05706336225773611</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04956042424738315</v>
+        <v>0.04907479728802792</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06584139186688473</v>
+        <v>0.06572959176331306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>257</v>
@@ -1633,19 +1633,19 @@
         <v>264151</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>235297</v>
+        <v>231275</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>294496</v>
+        <v>296391</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07968423580838981</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0709800996935168</v>
+        <v>0.0697669603636186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08883829364523164</v>
+        <v>0.08940998854272637</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>447</v>
@@ -1654,19 +1654,19 @@
         <v>448455</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>411234</v>
+        <v>410857</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>490784</v>
+        <v>487027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06852096528367116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06283384619148569</v>
+        <v>0.06277629380851821</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07498862364316403</v>
+        <v>0.07441460722635973</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3045507</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3017156</v>
+        <v>3017517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3069740</v>
+        <v>3071309</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9429366377422639</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9341586081331158</v>
+        <v>0.9342704082366871</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9504395757526172</v>
+        <v>0.9509252027119722</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2977</v>
@@ -1704,19 +1704,19 @@
         <v>3050818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3020473</v>
+        <v>3018578</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3079672</v>
+        <v>3083694</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9203157641916102</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9111617063547685</v>
+        <v>0.9105900114572737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9290199003064833</v>
+        <v>0.9302330396363815</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5954</v>
@@ -1725,19 +1725,19 @@
         <v>6096325</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6053996</v>
+        <v>6057753</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6133546</v>
+        <v>6133923</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9314790347163289</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9250113763568359</v>
+        <v>0.9255853927736403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9371661538085142</v>
+        <v>0.9372237061914817</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>109025</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89830</v>
+        <v>88424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128857</v>
+        <v>130354</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.104649577022718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08622542246774781</v>
+        <v>0.08487534468650751</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1236856976477642</v>
+        <v>0.1251231884609044</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>157</v>
@@ -2090,19 +2090,19 @@
         <v>171141</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>148739</v>
+        <v>144806</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197889</v>
+        <v>194848</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1538041961841657</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1336713222332396</v>
+        <v>0.1301364581266274</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1778418945407727</v>
+        <v>0.1751094066973831</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>256</v>
@@ -2111,19 +2111,19 @@
         <v>280166</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>243857</v>
+        <v>247861</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>309630</v>
+        <v>312287</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1300358281631856</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1131834660978526</v>
+        <v>0.1150416599380446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.143711022393073</v>
+        <v>0.1449443131543741</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>932783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>912951</v>
+        <v>911454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>951978</v>
+        <v>953384</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.895350422977282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8763143023522361</v>
+        <v>0.8748768115390956</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9137745775322522</v>
+        <v>0.9151246553134925</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>868</v>
@@ -2161,19 +2161,19 @@
         <v>941582</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>914834</v>
+        <v>917875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>963984</v>
+        <v>967917</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8461958038158343</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8221581054592273</v>
+        <v>0.8248905933026168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8663286777667605</v>
+        <v>0.8698635418733727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1745</v>
@@ -2182,19 +2182,19 @@
         <v>1874365</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1844901</v>
+        <v>1842244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1910674</v>
+        <v>1906670</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8699641718368144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8562889776069271</v>
+        <v>0.8550556868456259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8868165339021477</v>
+        <v>0.8849583400619557</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>96895</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78047</v>
+        <v>79252</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118848</v>
+        <v>118737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09934414213060279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08001963035118348</v>
+        <v>0.08125500337369615</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.121852306554693</v>
+        <v>0.1217390589186083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -2307,19 +2307,19 @@
         <v>109692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89883</v>
+        <v>91334</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132283</v>
+        <v>132585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1004380903763177</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08229961519350668</v>
+        <v>0.08362881974147403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1211227793048026</v>
+        <v>0.121399653078223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>187</v>
@@ -2328,19 +2328,19 @@
         <v>206587</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>179793</v>
+        <v>180154</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>236945</v>
+        <v>237652</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0999220157629003</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08696233708959084</v>
+        <v>0.08713703811110782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1146054656994166</v>
+        <v>0.1149472651770101</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>878449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>856496</v>
+        <v>856607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>897297</v>
+        <v>896092</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9006558578693972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.878147693445307</v>
+        <v>0.8782609410813916</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9199803696488167</v>
+        <v>0.9187449966263038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>918</v>
@@ -2378,19 +2378,19 @@
         <v>982448</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>959857</v>
+        <v>959555</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1002257</v>
+        <v>1000806</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8995619096236823</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8788772206951975</v>
+        <v>0.8786003469217769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9177003848064935</v>
+        <v>0.916371180258526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1753</v>
@@ -2399,19 +2399,19 @@
         <v>1860897</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1830539</v>
+        <v>1829832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1887691</v>
+        <v>1887330</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9000779842370997</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8853945343005833</v>
+        <v>0.88505273482299</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9130376629104091</v>
+        <v>0.912862961888892</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>100154</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82524</v>
+        <v>80275</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121065</v>
+        <v>122906</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1132728768718431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09333347325193884</v>
+        <v>0.0907893369651592</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.136922815383413</v>
+        <v>0.1390053674763033</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -2524,19 +2524,19 @@
         <v>112234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94856</v>
+        <v>92490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>133217</v>
+        <v>131857</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1283023484767137</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1084369095663351</v>
+        <v>0.1057319519624545</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1522898985276155</v>
+        <v>0.1507347278695906</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -2545,19 +2545,19 @@
         <v>212388</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>181858</v>
+        <v>183667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>238726</v>
+        <v>242193</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1207473520208819</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1033904329534179</v>
+        <v>0.1044187898751434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1357209805687565</v>
+        <v>0.1376919177748111</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>784031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>763120</v>
+        <v>761279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>801661</v>
+        <v>803910</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8867271231281569</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8630771846165869</v>
+        <v>0.8609946325236968</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9066665267480611</v>
+        <v>0.9092106630348408</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>715</v>
@@ -2595,19 +2595,19 @@
         <v>762528</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>741545</v>
+        <v>742905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>779906</v>
+        <v>782272</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8716976515232864</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8477101014723845</v>
+        <v>0.8492652721304095</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8915630904336648</v>
+        <v>0.8942680480375456</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1454</v>
@@ -2616,19 +2616,19 @@
         <v>1546559</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1520221</v>
+        <v>1516754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1577089</v>
+        <v>1575280</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8792526479791181</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8642790194312436</v>
+        <v>0.8623080822251888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8966095670465821</v>
+        <v>0.8955812101248566</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>43717</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31537</v>
+        <v>31839</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58758</v>
+        <v>60591</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08704963958149592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06279660592684762</v>
+        <v>0.06339865129591431</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1169981119911751</v>
+        <v>0.120649198980265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -2741,19 +2741,19 @@
         <v>40398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29345</v>
+        <v>28437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53357</v>
+        <v>54821</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08960087374388405</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0650847884591827</v>
+        <v>0.06307104336934714</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1183422042147869</v>
+        <v>0.1215907140946787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -2762,19 +2762,19 @@
         <v>84115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66514</v>
+        <v>67468</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>105329</v>
+        <v>104046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08825653971309694</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06978847773828489</v>
+        <v>0.07078946940515049</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1105146021062609</v>
+        <v>0.1091679918345289</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>458493</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>443452</v>
+        <v>441619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>470673</v>
+        <v>470371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9129503604185041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8830018880088248</v>
+        <v>0.8793508010197341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9372033940731522</v>
+        <v>0.9366013487040854</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>374</v>
@@ -2812,19 +2812,19 @@
         <v>410470</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>397511</v>
+        <v>396047</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>421523</v>
+        <v>422431</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.910399126256116</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8816577957852131</v>
+        <v>0.8784092859053213</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9349152115408175</v>
+        <v>0.9369289566306529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>796</v>
@@ -2833,19 +2833,19 @@
         <v>868963</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>847749</v>
+        <v>849032</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>886564</v>
+        <v>885610</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9117434602869031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8894853978937387</v>
+        <v>0.890832008165471</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.930211522261715</v>
+        <v>0.9292105305948493</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>349791</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>314240</v>
+        <v>314472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>389164</v>
+        <v>388904</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.102772448470663</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09232717708583943</v>
+        <v>0.09239544416742086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.114340762395722</v>
+        <v>0.1142644035069013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>398</v>
@@ -2958,19 +2958,19 @@
         <v>433466</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>396295</v>
+        <v>394664</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>472778</v>
+        <v>471931</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1227777808459943</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1122491161679147</v>
+        <v>0.1117871440456776</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1339127848364743</v>
+        <v>0.1336728037079623</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>712</v>
@@ -2979,19 +2979,19 @@
         <v>783257</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>722981</v>
+        <v>723802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>840047</v>
+        <v>837552</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1129582382090489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1042654134197604</v>
+        <v>0.1043839006459636</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1211482192536432</v>
+        <v>0.1207884689648848</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3053757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3014384</v>
+        <v>3014644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3089308</v>
+        <v>3089076</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.897227551529337</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8856592376042778</v>
+        <v>0.8857355964930987</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9076728229141605</v>
+        <v>0.9076045558325792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2875</v>
@@ -3029,19 +3029,19 @@
         <v>3097027</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3057715</v>
+        <v>3058562</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3134198</v>
+        <v>3135829</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8772222191540057</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8660872151635256</v>
+        <v>0.8663271962920377</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8877508838320852</v>
+        <v>0.8882128559543223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5748</v>
@@ -3050,19 +3050,19 @@
         <v>6150784</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6093994</v>
+        <v>6096489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6211060</v>
+        <v>6210239</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8870417617909511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8788517807463569</v>
+        <v>0.8792115310351155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8957345865802397</v>
+        <v>0.8956160993540365</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>126901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106901</v>
+        <v>107150</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148639</v>
+        <v>150031</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1125014613478376</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09477047196552327</v>
+        <v>0.09499174576333216</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1317721821810152</v>
+        <v>0.1330064495539579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -3415,19 +3415,19 @@
         <v>165704</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143085</v>
+        <v>141661</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>193697</v>
+        <v>191109</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1315567978974226</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.113599398402672</v>
+        <v>0.1124681699422221</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1537816163441727</v>
+        <v>0.1517270179461445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>272</v>
@@ -3436,19 +3436,19 @@
         <v>292605</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>259858</v>
+        <v>261135</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>328038</v>
+        <v>328638</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1225541404344686</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1088382765369794</v>
+        <v>0.1093732703067475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1373946715024718</v>
+        <v>0.1376459868914661</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1001096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>979358</v>
+        <v>977966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1021096</v>
+        <v>1020847</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8874985386521624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8682278178189847</v>
+        <v>0.8669935504460422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.905229528034477</v>
+        <v>0.905008254236668</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1041</v>
@@ -3486,19 +3486,19 @@
         <v>1093857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1065864</v>
+        <v>1068452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1116476</v>
+        <v>1117900</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8684432021025774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8462183836558274</v>
+        <v>0.8482729820538555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8864006015973279</v>
+        <v>0.8875318300577779</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1982</v>
@@ -3507,19 +3507,19 @@
         <v>2094953</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2059520</v>
+        <v>2058920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2127700</v>
+        <v>2126423</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8774458595655314</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.862605328497528</v>
+        <v>0.8623540131085339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8911617234630204</v>
+        <v>0.8906267296932525</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>78445</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63654</v>
+        <v>63250</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96453</v>
+        <v>96369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08631489645311469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07004027569863187</v>
+        <v>0.06959581476564174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1061293635180075</v>
+        <v>0.1060367105123748</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -3632,19 +3632,19 @@
         <v>91066</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72188</v>
+        <v>72742</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111978</v>
+        <v>109991</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09047975769707764</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07172406236366788</v>
+        <v>0.07227432966816368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1112575149188355</v>
+        <v>0.1092835331625604</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>159</v>
@@ -3653,19 +3653,19 @@
         <v>169511</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143362</v>
+        <v>145959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>194517</v>
+        <v>198155</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08850349865156346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07485080159444543</v>
+        <v>0.07620680901854796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1015594116581041</v>
+        <v>0.1034591294994766</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>830380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>812372</v>
+        <v>812456</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>845171</v>
+        <v>845575</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9136851035468854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8938706364819923</v>
+        <v>0.8939632894876249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.929959724301368</v>
+        <v>0.9304041852343582</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>871</v>
@@ -3703,19 +3703,19 @@
         <v>915409</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>894497</v>
+        <v>896484</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>934287</v>
+        <v>933733</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9095202423029224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8887424850811645</v>
+        <v>0.8907164668374395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9282759376363322</v>
+        <v>0.9277256703318363</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1673</v>
@@ -3724,19 +3724,19 @@
         <v>1745789</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1720783</v>
+        <v>1717145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1771938</v>
+        <v>1769341</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9114965013484365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8984405883418959</v>
+        <v>0.8965408705005234</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9251491984055545</v>
+        <v>0.9237931909814525</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>70322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55862</v>
+        <v>55816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87981</v>
+        <v>87235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08536740088442432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06781369229998561</v>
+        <v>0.06775762606204888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1068042911678044</v>
+        <v>0.1058981153287543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -3849,19 +3849,19 @@
         <v>70898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55043</v>
+        <v>56103</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91452</v>
+        <v>91273</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09194930082691395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07138583673955032</v>
+        <v>0.07276082410445835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.118605999755629</v>
+        <v>0.1183741675189943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>130</v>
@@ -3870,19 +3870,19 @@
         <v>141220</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119315</v>
+        <v>117854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165617</v>
+        <v>165841</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08854960175172616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07481439472236495</v>
+        <v>0.07389819151424655</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1038470072001263</v>
+        <v>0.1039871875670593</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>753437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>735778</v>
+        <v>736524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>767897</v>
+        <v>767943</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9146325991155757</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8931957088321951</v>
+        <v>0.894101884671245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9321863077000141</v>
+        <v>0.9322423739379511</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>668</v>
@@ -3920,19 +3920,19 @@
         <v>700161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>679607</v>
+        <v>679786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>716016</v>
+        <v>714956</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.908050699173086</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.881394000244371</v>
+        <v>0.8816258324810058</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9286141632604497</v>
+        <v>0.9272391758955417</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1385</v>
@@ -3941,19 +3941,19 @@
         <v>1453598</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1429201</v>
+        <v>1428977</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1475503</v>
+        <v>1476964</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9114503982482738</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8961529927998736</v>
+        <v>0.8960128124329406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9251856052776347</v>
+        <v>0.9261018084857534</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>37100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25777</v>
+        <v>26707</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49576</v>
+        <v>50719</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07321838225910393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05087169778009244</v>
+        <v>0.05270691592274021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0978415678551747</v>
+        <v>0.1000970284317041</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4066,19 +4066,19 @@
         <v>58567</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44258</v>
+        <v>44223</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76810</v>
+        <v>75715</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1195986638228893</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09037790193790707</v>
+        <v>0.09030589678622698</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1568527621108843</v>
+        <v>0.1546157370832678</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -4087,19 +4087,19 @@
         <v>95667</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77671</v>
+        <v>78659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116532</v>
+        <v>115216</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09601278771529662</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07795139549223934</v>
+        <v>0.0789435886426868</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.116953522224046</v>
+        <v>0.1156325344994008</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>469601</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>457125</v>
+        <v>455982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>480924</v>
+        <v>479994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9267816177408961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9021584321448256</v>
+        <v>0.8999029715682962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9491283022199076</v>
+        <v>0.9472930840772599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>406</v>
@@ -4137,19 +4137,19 @@
         <v>431131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>412888</v>
+        <v>413983</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>445440</v>
+        <v>445475</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8804013361771107</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8431472378891161</v>
+        <v>0.8453842629167323</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.909622098062093</v>
+        <v>0.9096941032137731</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>840</v>
@@ -4158,19 +4158,19 @@
         <v>900731</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>879866</v>
+        <v>881182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>918727</v>
+        <v>917739</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9039872122847034</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8830464777759537</v>
+        <v>0.8843674655005992</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9220486045077605</v>
+        <v>0.9210564113573132</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>312768</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>282228</v>
+        <v>281409</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>345541</v>
+        <v>347517</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09288454119896722</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08381463791166736</v>
+        <v>0.08357151771122394</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1026171639030721</v>
+        <v>0.1032040671043874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>336</v>
@@ -4283,19 +4283,19 @@
         <v>386235</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>349835</v>
+        <v>349132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>428121</v>
+        <v>422504</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1095145011759649</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09919340599879201</v>
+        <v>0.09899429419241002</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1213909593351198</v>
+        <v>0.1197983206107473</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>647</v>
@@ -4304,19 +4304,19 @@
         <v>699003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>649204</v>
+        <v>647088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>748283</v>
+        <v>751566</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1013919071718404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09416835527720034</v>
+        <v>0.09386149073384902</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1085400650707827</v>
+        <v>0.1090162392035036</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3054514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3021741</v>
+        <v>3019765</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3085054</v>
+        <v>3085873</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9071154588010328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8973828360969279</v>
+        <v>0.8967959328956127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9161853620883327</v>
+        <v>0.9164284822887759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2986</v>
@@ -4354,19 +4354,19 @@
         <v>3140557</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3098671</v>
+        <v>3104288</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3176957</v>
+        <v>3177660</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8904854988240352</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8786090406648803</v>
+        <v>0.8802016793892528</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.900806594001208</v>
+        <v>0.9010057058075901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5880</v>
@@ -4375,19 +4375,19 @@
         <v>6195072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6145792</v>
+        <v>6142509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6244871</v>
+        <v>6246987</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8986080928281596</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8914599349292173</v>
+        <v>0.8909837607964964</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9058316447227996</v>
+        <v>0.906138509266151</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>62439</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49474</v>
+        <v>49675</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77141</v>
+        <v>77348</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1251944190860239</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09919737193900478</v>
+        <v>0.09960023893844866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1546714997341088</v>
+        <v>0.1550878966682747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -4740,19 +4740,19 @@
         <v>96071</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81752</v>
+        <v>82775</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110852</v>
+        <v>110896</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1540639441911463</v>
+        <v>0.1540639441911464</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1311004932812404</v>
+        <v>0.1327418586324146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1777668462661508</v>
+        <v>0.1778378994260669</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>239</v>
@@ -4761,19 +4761,19 @@
         <v>158511</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140214</v>
+        <v>139772</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177199</v>
+        <v>178993</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1412348286847174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1249321138270399</v>
+        <v>0.1245384170696178</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1578864914540444</v>
+        <v>0.1594848075732339</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>436300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421598</v>
+        <v>421391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449265</v>
+        <v>449064</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8748055809139762</v>
+        <v>0.8748055809139761</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8453285002658915</v>
+        <v>0.8449121033317252</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9008026280609953</v>
+        <v>0.9003997610615514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>698</v>
@@ -4811,19 +4811,19 @@
         <v>527509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>512728</v>
+        <v>512684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>541828</v>
+        <v>540805</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8459360558088536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8222331537338493</v>
+        <v>0.8221621005739331</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8688995067187597</v>
+        <v>0.8672581413675858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1077</v>
@@ -4832,19 +4832,19 @@
         <v>963809</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>945121</v>
+        <v>943327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>982106</v>
+        <v>982548</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8587651713152826</v>
+        <v>0.8587651713152825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8421135085459549</v>
+        <v>0.840515192426766</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8750678861729599</v>
+        <v>0.8754615829303819</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>122597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>104378</v>
+        <v>102705</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143220</v>
+        <v>142884</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1276865405402476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1087118710710817</v>
+        <v>0.1069689872036552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1491658825893836</v>
+        <v>0.1488160993327551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>312</v>
@@ -4957,19 +4957,19 @@
         <v>171409</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>152559</v>
+        <v>154575</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>191199</v>
+        <v>191263</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.15369598087721</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.136794232284965</v>
+        <v>0.1386018294694546</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1714409088956151</v>
+        <v>0.1714981949577097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>475</v>
@@ -4978,19 +4978,19 @@
         <v>294005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>267887</v>
+        <v>267384</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>322974</v>
+        <v>321511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1416632047751546</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1290781642006245</v>
+        <v>0.1288357751320788</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1556216089726711</v>
+        <v>0.1549163049089103</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>837540</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>816917</v>
+        <v>817253</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>855759</v>
+        <v>857432</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8723134594597524</v>
+        <v>0.8723134594597525</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8508341174106164</v>
+        <v>0.8511839006672448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8912881289289182</v>
+        <v>0.8930310127963449</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1294</v>
@@ -5028,19 +5028,19 @@
         <v>943837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>924047</v>
+        <v>923983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962687</v>
+        <v>960671</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.84630401912279</v>
+        <v>0.8463040191227901</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.828559091104385</v>
+        <v>0.8285018050422903</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8632057677150348</v>
+        <v>0.8613981705305456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2041</v>
@@ -5049,19 +5049,19 @@
         <v>1781378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1752409</v>
+        <v>1753872</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1807496</v>
+        <v>1807999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8583367952248453</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8443783910273289</v>
+        <v>0.8450836950910897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8709218357993755</v>
+        <v>0.8711642248679212</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>121867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105583</v>
+        <v>105403</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141281</v>
+        <v>143481</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1164539280985822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1008933012076316</v>
+        <v>0.1007215909998931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1350059387033079</v>
+        <v>0.1371081593169004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>243</v>
@@ -5174,19 +5174,19 @@
         <v>131263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114975</v>
+        <v>113759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149311</v>
+        <v>146799</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1252933976212613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1097467232949857</v>
+        <v>0.1085857221542818</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1425214701025373</v>
+        <v>0.1401229356519693</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>404</v>
@@ -5195,19 +5195,19 @@
         <v>253129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227823</v>
+        <v>227268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>277837</v>
+        <v>277405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1208761160663317</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1087915795500301</v>
+        <v>0.1085264414997264</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1326747956248574</v>
+        <v>0.1324684740571684</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>924612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>905198</v>
+        <v>902998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>940896</v>
+        <v>941076</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8835460719014177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8649940612966922</v>
+        <v>0.8628918406830997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8991066987923685</v>
+        <v>0.8992784090001069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1273</v>
@@ -5245,19 +5245,19 @@
         <v>916379</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>898331</v>
+        <v>900843</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>932667</v>
+        <v>933883</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8747066023787387</v>
+        <v>0.8747066023787388</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8574785298974628</v>
+        <v>0.8598770643480307</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8902532767050143</v>
+        <v>0.8914142778457184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2141</v>
@@ -5266,19 +5266,19 @@
         <v>1840992</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1816284</v>
+        <v>1816716</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1866298</v>
+        <v>1866853</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8791238839336681</v>
+        <v>0.8791238839336684</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8673252043751427</v>
+        <v>0.8675315259428317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8912084204499701</v>
+        <v>0.8914735585002737</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>116022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97125</v>
+        <v>97609</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>135514</v>
+        <v>135560</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1188837409475934</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09952011054860935</v>
+        <v>0.1000165609388853</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1388563244624104</v>
+        <v>0.1389034019901837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>220</v>
@@ -5391,19 +5391,19 @@
         <v>116566</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100139</v>
+        <v>102395</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131782</v>
+        <v>131850</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1282864794868291</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1102074728200024</v>
+        <v>0.112690008502728</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1450317440164355</v>
+        <v>0.1451069424664506</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>371</v>
@@ -5412,19 +5412,19 @@
         <v>232589</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211348</v>
+        <v>211773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>256909</v>
+        <v>257064</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1234172516204276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1121465465822106</v>
+        <v>0.1123722382398643</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1363222021187669</v>
+        <v>0.1364047668588506</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>859907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>840415</v>
+        <v>840369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>878804</v>
+        <v>878320</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8811162590524066</v>
+        <v>0.8811162590524068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8611436755375896</v>
+        <v>0.8610965980098162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.900479889451391</v>
+        <v>0.8999834390611147</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1101</v>
@@ -5462,19 +5462,19 @@
         <v>792076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>776860</v>
+        <v>776792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>808503</v>
+        <v>806247</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8717135205131711</v>
+        <v>0.8717135205131707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8549682559835645</v>
+        <v>0.8548930575335495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8897925271799976</v>
+        <v>0.8873099914972721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1897</v>
@@ -5483,19 +5483,19 @@
         <v>1651982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1627662</v>
+        <v>1627507</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1673223</v>
+        <v>1672798</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8765827483795724</v>
+        <v>0.8765827483795723</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.863677797881233</v>
+        <v>0.8635952331411493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8878534534177893</v>
+        <v>0.8876277617601357</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>422925</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>388948</v>
+        <v>387907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>458878</v>
+        <v>457749</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1214852307406018</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1117253487829213</v>
+        <v>0.1114263666828236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1318127462199409</v>
+        <v>0.1314884646930546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>938</v>
@@ -5608,19 +5608,19 @@
         <v>515309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>482611</v>
+        <v>485558</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>547093</v>
+        <v>545757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1394570511471967</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1306079405432298</v>
+        <v>0.1314056115630446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1480586026689946</v>
+        <v>0.1476972173658358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1489</v>
@@ -5629,19 +5629,19 @@
         <v>938234</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>891849</v>
+        <v>892508</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>988697</v>
+        <v>989704</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1307388824712094</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1242753474841344</v>
+        <v>0.1243671883008567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1377707049798816</v>
+        <v>0.1379110365713466</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3058359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3022406</v>
+        <v>3023535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3092336</v>
+        <v>3093377</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8785147692593982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8681872537800591</v>
+        <v>0.8685115353069454</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8882746512170787</v>
+        <v>0.8885736333171765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4366</v>
@@ -5679,19 +5679,19 @@
         <v>3179801</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3148017</v>
+        <v>3149353</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3212499</v>
+        <v>3209552</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8605429488528034</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8519413973310054</v>
+        <v>0.8523027826341643</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8693920594567701</v>
+        <v>0.8685943884369552</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7156</v>
@@ -5700,19 +5700,19 @@
         <v>6238161</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6187698</v>
+        <v>6186691</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6284546</v>
+        <v>6283887</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8692611175287906</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8622292950201184</v>
+        <v>0.8620889634286533</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8757246525158657</v>
+        <v>0.8756328116991431</v>
       </c>
     </row>
     <row r="18">
